--- a/PAM/FvFm-dFFm July 19.xlsx
+++ b/PAM/FvFm-dFFm July 19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Downloads/PAM/TransplantSites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/PAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99DC5D4-2EA7-3F47-B294-910ECDA2D07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B9E621-9365-6041-803B-81A9D2E382D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="25120" windowHeight="14260" xr2:uid="{49D89CCF-2A5F-6844-B3E6-294B535C41C5}"/>
+    <workbookView xWindow="6840" yWindow="500" windowWidth="21640" windowHeight="14220" xr2:uid="{49D89CCF-2A5F-6844-B3E6-294B535C41C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Shallow" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId4"/>
-    <pivotCache cacheId="45" r:id="rId5"/>
+    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6342,16 +6342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13263,7 +13263,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EF338F0-7B02-3943-B290-F099A2DA833E}" name="PivotTable2" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EF338F0-7B02-3943-B290-F099A2DA833E}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="R1:U129" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0">
@@ -13937,7 +13937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F900EBD-A8D1-9346-987C-C5095C5A8A71}" name="PivotTable3" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F900EBD-A8D1-9346-987C-C5095C5A8A71}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="R1:U77" firstHeaderRow="1" firstDataRow="3" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" numFmtId="47" outline="0" showAll="0">
@@ -14699,8 +14699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5458EF6C-F5A7-8544-82E0-8CB95EE270F0}">
   <dimension ref="A1:AB207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28475,8 +28475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6598F727-5FD8-584C-8A6E-2339D0CE7181}">
   <dimension ref="A1:AC147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView topLeftCell="AC36" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38166,7 +38166,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
